--- a/normaliseren/h1/Supermarkt super de loer.xlsx
+++ b/normaliseren/h1/Supermarkt super de loer.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/528cf4a6a6b19b86/github/ao2/normaliseren/h1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{81EA5EBF-1B35-444C-9ACB-A1F52F17B53F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="77" documentId="8_{81EA5EBF-1B35-444C-9ACB-A1F52F17B53F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{DDCFA7AE-FA12-4739-9E9C-F1DB41F37B74}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{21963E9E-0E57-4753-B60C-F4E00E02A8F8}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="24">
   <si>
     <t>0de</t>
   </si>
@@ -87,10 +87,22 @@
     <t>afoerlijst regel</t>
   </si>
   <si>
-    <t>levrancier</t>
-  </si>
-  <si>
     <t>afvoerlijst</t>
+  </si>
+  <si>
+    <t>Datum</t>
+  </si>
+  <si>
+    <t>datum</t>
+  </si>
+  <si>
+    <t>Filiaal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">n </t>
+  </si>
+  <si>
+    <t>n</t>
   </si>
 </sst>
 </file>
@@ -114,12 +126,36 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -134,10 +170,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -153,6 +198,173 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>548640</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>251460</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="Verbindingslijn: gekromd 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8890EF74-A8BD-4AD3-BBCB-F08FA29479A8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="7559040" y="579120"/>
+          <a:ext cx="662940" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedConnector3">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="6" name="Verbindingslijn: gekromd 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6168F394-E8C3-4A53-ABCD-BC59C3141164}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="7467600" y="1485900"/>
+          <a:ext cx="1645920" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedConnector3">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>175260</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>289560</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="16" name="Verbindingslijn: gekromd 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A2FD8E1D-7D9B-4860-80CE-AA87260FF2A7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipV="1">
+          <a:off x="8008620" y="701040"/>
+          <a:ext cx="388620" cy="114300"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedConnector3">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -452,10 +664,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC0639E0-91E8-4458-AAD5-ACE86B2FA104}">
-  <dimension ref="A1:O21"/>
+  <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J24" sqref="J24:J25"/>
+      <selection activeCell="P15" sqref="P15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -468,9 +680,10 @@
     <col min="10" max="10" width="14" customWidth="1"/>
     <col min="11" max="11" width="13.88671875" customWidth="1"/>
     <col min="13" max="13" width="12.33203125" customWidth="1"/>
+    <col min="14" max="14" width="12.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -484,8 +697,8 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -494,22 +707,37 @@
       <c r="E3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="I3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O3" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>19</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>2</v>
       </c>
       <c r="C4" t="s">
         <v>2</v>
@@ -517,13 +745,13 @@
       <c r="E4" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="G4" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>3</v>
       </c>
       <c r="C5" t="s">
         <v>3</v>
@@ -531,31 +759,13 @@
       <c r="E5" t="s">
         <v>3</v>
       </c>
-      <c r="I5" t="s">
-        <v>18</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="K5" s="1" t="s">
+      <c r="G5" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="L5" t="s">
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>3</v>
-      </c>
-      <c r="M5" t="s">
-        <v>4</v>
-      </c>
-      <c r="N5" t="s">
-        <v>5</v>
-      </c>
-      <c r="O5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>4</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -563,10 +773,25 @@
       <c r="E6" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="I6" t="s">
+        <v>18</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="N6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -574,22 +799,13 @@
       <c r="E7" t="s">
         <v>5</v>
       </c>
-      <c r="G7" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="I7" t="s">
-        <v>17</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="K7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="G7" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C8" t="s">
         <v>6</v>
@@ -597,148 +813,176 @@
       <c r="E8" t="s">
         <v>6</v>
       </c>
-      <c r="G8" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="G8" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" t="s">
+        <v>17</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M8" t="s">
+        <v>9</v>
+      </c>
+      <c r="N8" t="s">
+        <v>12</v>
+      </c>
+      <c r="O8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
         <v>7</v>
       </c>
-      <c r="G9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+      <c r="C10" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
         <v>8</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G10" t="s">
-        <v>4</v>
-      </c>
-      <c r="I10" t="s">
-        <v>16</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K10" t="s">
-        <v>8</v>
-      </c>
-      <c r="L10" t="s">
-        <v>10</v>
-      </c>
-      <c r="M10" t="s">
-        <v>11</v>
-      </c>
-      <c r="N10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>9</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I11" t="s">
+        <v>16</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K11" t="s">
+        <v>8</v>
+      </c>
+      <c r="L11" t="s">
+        <v>10</v>
+      </c>
+      <c r="M11" t="s">
+        <v>11</v>
+      </c>
+      <c r="N11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
         <v>9</v>
-      </c>
-      <c r="G11" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>10</v>
       </c>
       <c r="C12" t="s">
         <v>8</v>
       </c>
-      <c r="G12" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="E12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C13" t="s">
         <v>9</v>
       </c>
-      <c r="E13" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="E13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C14" t="s">
         <v>10</v>
       </c>
-      <c r="E14" t="s">
-        <v>8</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="G14" s="8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>12</v>
+      </c>
       <c r="C15" t="s">
         <v>11</v>
       </c>
-      <c r="E15" t="s">
-        <v>10</v>
-      </c>
-      <c r="G15" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="E15" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>12</v>
       </c>
       <c r="E16" t="s">
-        <v>11</v>
+        <v>8</v>
+      </c>
+      <c r="G16" s="9" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="17" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E17" t="s">
+        <v>10</v>
+      </c>
+      <c r="G17" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G17" s="1" t="s">
+    </row>
+    <row r="18" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E18" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="G19" s="10" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="G18" t="s">
+    <row r="20" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="G20" s="11" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="G19" t="s">
+    <row r="21" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="G21" s="11" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="G20" t="s">
+    <row r="22" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="G22" s="11" t="s">
         <v>11</v>
-      </c>
-    </row>
-    <row r="21" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="G21" t="s">
-        <v>12</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>